--- a/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606</v>
+        <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>3.175591531755916</v>
+        <v>2.804333970681963</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>8.715596330275229</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="G2" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9707317073170731</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9128440366972477</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9408983451536643</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="N2" t="n">
-        <v>96.60967027379453</v>
+        <v>96.31856949789896</v>
       </c>
       <c r="O2" t="n">
-        <v>83.72778393670905</v>
+        <v>84.74841674288591</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>2.23463687150838</v>
+        <v>1.716247139588101</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>12.39530988274707</v>
+        <v>7.627118644067797</v>
       </c>
       <c r="G3" t="n">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H3" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9685314685314685</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9112227805695142</v>
+        <v>0.9389830508474576</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9403630077787382</v>
+        <v>0.9535283993115319</v>
       </c>
       <c r="N3" t="n">
-        <v>98.3841950658083</v>
+        <v>98.17981885039683</v>
       </c>
       <c r="O3" t="n">
-        <v>81.20988601333718</v>
+        <v>87.4542745237093</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1363</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>3.008070432868672</v>
+        <v>3.005259203606311</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>13.68421052631579</v>
+        <v>14.1304347826087</v>
       </c>
       <c r="G4" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H4" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8842105263157894</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8961748633879781</v>
       </c>
       <c r="N4" t="n">
-        <v>98.55249437309035</v>
+        <v>98.80081554819705</v>
       </c>
       <c r="O4" t="n">
-        <v>84.39083221803347</v>
+        <v>84.0544083170283</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3133</v>
+        <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>4.468560485157996</v>
+        <v>4.567699836867863</v>
       </c>
       <c r="D5" t="n">
         <v>140</v>
       </c>
       <c r="E5" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" t="n">
-        <v>4.794520547945205</v>
+        <v>4.81651376146789</v>
       </c>
       <c r="G5" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9794520547945206</v>
+        <v>0.9839449541284404</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9896193771626297</v>
+        <v>0.991907514450867</v>
       </c>
       <c r="N5" t="n">
-        <v>98.25948133946524</v>
+        <v>98.20903648759541</v>
       </c>
       <c r="O5" t="n">
-        <v>89.46301448661643</v>
+        <v>89.4139275178901</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.098773402194964</v>
+        <v>3.141711229946524</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
-        <v>5.392156862745098</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="G6" t="n">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9950248756218906</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9923664122137404</v>
       </c>
       <c r="N6" t="n">
-        <v>97.98194127559401</v>
+        <v>97.8422639869387</v>
       </c>
       <c r="O6" t="n">
-        <v>87.92357278823232</v>
+        <v>89.30463118359341</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2129</v>
+        <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1.550023485204321</v>
+        <v>1.530864197530864</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
         <v>268</v>
       </c>
       <c r="F7" t="n">
-        <v>11.94029850746269</v>
+        <v>1.865671641791045</v>
       </c>
       <c r="G7" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H7" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.94921875</v>
+        <v>0.9962121212121212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9067164179104478</v>
+        <v>0.9813432835820896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9274809160305344</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="N7" t="n">
-        <v>99.4417884170594</v>
+        <v>99.38800957087096</v>
       </c>
       <c r="O7" t="n">
-        <v>83.49339053784254</v>
+        <v>95.8659092336371</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.457000710732054</v>
+        <v>1.488743645606391</v>
       </c>
       <c r="D8" t="n">
         <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8639308855291578</v>
       </c>
       <c r="G8" t="n">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.997872340425532</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9989350372736954</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>99.93474884855419</v>
+        <v>99.93466287553207</v>
       </c>
       <c r="O8" t="n">
-        <v>97.8585323534754</v>
+        <v>97.82594040101576</v>
       </c>
     </row>
     <row r="9">
@@ -860,25 +860,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>2.336448598130841</v>
+        <v>2.36854571293226</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>3.012048192771084</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="G9" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H9" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -887,19 +887,19 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.990990990990991</v>
+        <v>0.9909365558912386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9939759036144579</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9924812030075187</v>
+        <v>0.9924357034795764</v>
       </c>
       <c r="N9" t="n">
-        <v>99.6538672948237</v>
+        <v>99.58653450817198</v>
       </c>
       <c r="O9" t="n">
-        <v>93.65507026165785</v>
+        <v>93.61647778000919</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.804333970681963</v>
+        <v>1549</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.230720203951562</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>215</v>
       </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.796296296296296</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="P2" t="n">
+        <v>99.53703703703704</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.9705882352941176</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9428571428571428</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>96.31856949789896</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>84.74841674288591</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>1.716247139588101</v>
+        <v>3466</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.202517162471396</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.627118644067797</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>565</v>
       </c>
-      <c r="H3" t="n">
-        <v>588</v>
-      </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>585</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.932203389830509</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.542372881355933</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20</v>
+      </c>
+      <c r="O3" t="n">
+        <v>95.76271186440678</v>
+      </c>
+      <c r="P3" t="n">
+        <v>99.15254237288136</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9685314685314685</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.9389830508474576</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9535283993115319</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>98.17981885039683</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>87.4542745237093</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>3.005259203606311</v>
+        <v>1329</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.427498121712998</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>14.1304347826087</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>179</v>
       </c>
-      <c r="H4" t="n">
-        <v>181</v>
-      </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.95652173913044</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>97.28260869565217</v>
+      </c>
+      <c r="P4" t="n">
+        <v>97.82608695652173</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9010989010989011</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.8913043478260869</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8961748633879781</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>98.80081554819705</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>84.0544083170283</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>4.567699836867863</v>
+        <v>3055</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
+        <v>109</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.882544861337683</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.81651376146789</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>416</v>
       </c>
-      <c r="H5" t="n">
-        <v>434</v>
-      </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.669724770642202</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.752293577981652</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>95.41284403669725</v>
+      </c>
+      <c r="P5" t="n">
+        <v>96.3302752293578</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.9839449541284404</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.991907514450867</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>98.20903648759541</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>89.4139275178901</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>3.141711229946524</v>
+        <v>1481</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.938502673796792</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>189</v>
       </c>
-      <c r="H6" t="n">
-        <v>196</v>
-      </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
+        <v>4.040404040404041</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>95.45454545454545</v>
+      </c>
+      <c r="P6" t="n">
+        <v>96.46464646464646</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.9848484848484849</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9923664122137404</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>97.8422639869387</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>89.30463118359341</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1.530864197530864</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.62962962962963</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>264</v>
+      </c>
+      <c r="I7" t="n">
+        <v>264</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.865671641791045</v>
       </c>
-      <c r="G7" t="n">
-        <v>264</v>
-      </c>
-      <c r="H7" t="n">
-        <v>268</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
+        <v>1.865671641791045</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>98.50746268656717</v>
+      </c>
+      <c r="P7" t="n">
+        <v>98.50746268656717</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.9962121212121212</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.9813432835820896</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9887218045112782</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>99.38800957087096</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>95.8659092336371</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.488743645606391</v>
+        <v>2752</v>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
+        <v>26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.016702977487291</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.8639308855291578</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>459</v>
       </c>
-      <c r="H8" t="n">
-        <v>463</v>
-      </c>
       <c r="I8" t="n">
+        <v>459</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>0.6479481641468683</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6479481641468683</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>99.13606911447084</v>
+      </c>
+      <c r="P8" t="n">
+        <v>99.13606911447084</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>99.93466287553207</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>97.82594040101576</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>2.36854571293226</v>
+        <v>2095</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.705352913311227</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>324</v>
       </c>
-      <c r="H9" t="n">
-        <v>328</v>
-      </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>98.18181818181819</v>
+      </c>
+      <c r="P9" t="n">
+        <v>98.7878787878788</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9909365558912386</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9939393939393939</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9924357034795764</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.58653450817198</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>93.61647778000919</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,644 +436,673 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1389</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9189000000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9668</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9951</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9631999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8475</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1569</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.230720203951562</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>204</v>
-      </c>
-      <c r="I2" t="n">
-        <v>215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8.796296296296296</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99.53703703703704</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9428571428571428</v>
-      </c>
-      <c r="T2" t="n">
-        <v>96.31856949789896</v>
-      </c>
-      <c r="U2" t="n">
-        <v>84.74841674288591</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>3496</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="F3" t="n">
+        <v>590</v>
+      </c>
+      <c r="G3" t="n">
+        <v>567</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9403</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9726</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9947</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9505</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8745000000000001</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3496</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3466</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>47</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.202517162471396</v>
-      </c>
-      <c r="G3" t="n">
-        <v>590</v>
-      </c>
-      <c r="H3" t="n">
-        <v>565</v>
-      </c>
-      <c r="I3" t="n">
-        <v>585</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.932203389830509</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.542372881355933</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20</v>
-      </c>
-      <c r="O3" t="n">
-        <v>95.76271186440678</v>
-      </c>
-      <c r="P3" t="n">
-        <v>99.15254237288136</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9685314685314685</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9389830508474576</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.9535283993115319</v>
-      </c>
-      <c r="T3" t="n">
-        <v>98.17981885039683</v>
-      </c>
-      <c r="U3" t="n">
-        <v>87.4542745237093</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="F4" t="n">
+        <v>184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8955</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9351</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8405</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1331</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.427498121712998</v>
-      </c>
-      <c r="G4" t="n">
-        <v>184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179</v>
-      </c>
-      <c r="I4" t="n">
-        <v>180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11.95652173913044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>97.28260869565217</v>
-      </c>
-      <c r="P4" t="n">
-        <v>97.82608695652173</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9010989010989011</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.8961748633879781</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98.80081554819705</v>
-      </c>
-      <c r="U4" t="n">
-        <v>84.0544083170283</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="F5" t="n">
+        <v>436</v>
+      </c>
+      <c r="G5" t="n">
+        <v>423</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0459</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9837</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9702</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9769</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9821</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8941</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3055</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>109</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.882544861337683</v>
-      </c>
-      <c r="G5" t="n">
-        <v>436</v>
-      </c>
-      <c r="H5" t="n">
-        <v>416</v>
-      </c>
-      <c r="I5" t="n">
-        <v>420</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.669724770642202</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.752293577981652</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95.41284403669725</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96.3302752293578</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9839449541284404</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.991907514450867</v>
-      </c>
-      <c r="T5" t="n">
-        <v>98.20903648759541</v>
-      </c>
-      <c r="U5" t="n">
-        <v>89.4139275178901</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="F6" t="n">
+        <v>198</v>
+      </c>
+      <c r="G6" t="n">
+        <v>191</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9948</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9784</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1496</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1481</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.938502673796792</v>
-      </c>
-      <c r="G6" t="n">
-        <v>198</v>
-      </c>
-      <c r="H6" t="n">
-        <v>189</v>
-      </c>
-      <c r="I6" t="n">
-        <v>191</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.040404040404041</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>95.45454545454545</v>
-      </c>
-      <c r="P6" t="n">
-        <v>96.46464646464646</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9923664122137404</v>
-      </c>
-      <c r="T6" t="n">
-        <v>97.8422639869387</v>
-      </c>
-      <c r="U6" t="n">
-        <v>89.30463118359341</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="n">
-        <v>2018</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>0.0163</v>
       </c>
       <c r="F7" t="n">
-        <v>1.62962962962963</v>
+        <v>268</v>
       </c>
       <c r="G7" t="n">
         <v>268</v>
       </c>
       <c r="H7" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.865671641791045</v>
+        <v>0.0187</v>
       </c>
       <c r="M7" t="n">
-        <v>1.865671641791045</v>
+        <v>0.0187</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.9817</v>
       </c>
       <c r="O7" t="n">
-        <v>98.50746268656717</v>
+        <v>0.9817</v>
       </c>
       <c r="P7" t="n">
-        <v>98.50746268656717</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9962121212121212</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9813432835820896</v>
+        <v>0.9908</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9887218045112782</v>
+        <v>0.9908</v>
       </c>
       <c r="T7" t="n">
-        <v>99.38800957087096</v>
+        <v>0.9939</v>
       </c>
       <c r="U7" t="n">
-        <v>95.8659092336371</v>
+        <v>0.9587</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="C8" t="n">
-        <v>2752</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>0.0102</v>
       </c>
       <c r="F8" t="n">
-        <v>1.016702977487291</v>
+        <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H8" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.0065</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.0065</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>99.13606911447084</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>99.13606911447084</v>
+        <v>0.9935</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.9935</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9967</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9967</v>
       </c>
       <c r="T8" t="n">
-        <v>99.93466287553207</v>
+        <v>0.9993</v>
       </c>
       <c r="U8" t="n">
-        <v>97.82594040101576</v>
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="F9" t="n">
+        <v>330</v>
+      </c>
+      <c r="G9" t="n">
+        <v>325</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9939</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9848</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9954</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2095</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.705352913311227</v>
-      </c>
-      <c r="G9" t="n">
-        <v>330</v>
-      </c>
-      <c r="H9" t="n">
-        <v>324</v>
-      </c>
-      <c r="I9" t="n">
-        <v>326</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.515151515151515</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>98.18181818181819</v>
-      </c>
-      <c r="P9" t="n">
-        <v>98.7878787878788</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9909365558912386</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.9939393939393939</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9924357034795764</v>
-      </c>
-      <c r="T9" t="n">
-        <v>99.58653450817198</v>
-      </c>
-      <c r="U9" t="n">
-        <v>93.61647778000919</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>11</v>
@@ -580,16 +580,16 @@
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1389</v>
+        <v>0.1296</v>
       </c>
       <c r="M2" t="n">
-        <v>0.037</v>
+        <v>0.0278</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.9273</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9668</v>
+        <v>0.9761</v>
       </c>
       <c r="P2" t="n">
         <v>0.9444</v>
@@ -598,10 +598,10 @@
         <v>0.9951</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9315</v>
+        <v>0.9358</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9808</v>
+        <v>0.9855</v>
       </c>
       <c r="T2" t="n">
         <v>0.9631999999999999</v>
@@ -635,13 +635,13 @@
         <v>590</v>
       </c>
       <c r="G3" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
         <v>20</v>
@@ -650,28 +650,28 @@
         <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>0.0949</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0322</v>
+        <v>0.0271</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9403</v>
+        <v>0.9435</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9726</v>
+        <v>0.9759</v>
       </c>
       <c r="P3" t="n">
-        <v>0.961</v>
+        <v>0.9627</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9947</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9505</v>
+        <v>0.953</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9835</v>
+        <v>0.9861</v>
       </c>
       <c r="T3" t="n">
         <v>0.9818</v>
@@ -845,10 +845,10 @@
         <v>198</v>
       </c>
       <c r="G6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -860,28 +860,28 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0505</v>
+        <v>0.0455</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0303</v>
+        <v>0.0253</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9845</v>
+        <v>0.9846</v>
       </c>
       <c r="O6" t="n">
         <v>0.9948</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9646</v>
+        <v>0.9697</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9745</v>
+        <v>0.9796</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9745</v>
+        <v>0.9771</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9845</v>
+        <v>0.9871</v>
       </c>
       <c r="T6" t="n">
         <v>0.9784</v>
@@ -900,16 +900,16 @@
         <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0163</v>
+        <v>0.0143</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0187</v>
+        <v>0.0149</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0187</v>
+        <v>0.0149</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9817</v>
+        <v>0.9853</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9817</v>
+        <v>0.9853</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -948,16 +948,16 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9908</v>
+        <v>0.9926</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9908</v>
+        <v>0.9926</v>
       </c>
       <c r="T7" t="n">
         <v>0.9939</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9587</v>
+        <v>0.9681</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,25 +970,25 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0102</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0065</v>
+        <v>0.0043</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0065</v>
+        <v>0.0043</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1012,22 +1012,22 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9935</v>
+        <v>0.9957</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9935</v>
+        <v>0.9957</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9967</v>
+        <v>0.9978</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9967</v>
+        <v>0.9978</v>
       </c>
       <c r="T8" t="n">
         <v>0.9993</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.9891</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GotOcr/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0223</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3466</v>
+        <v>3474</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.022</v>
+        <v>0.0072</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0143</v>
+        <v>0.0174</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>3055</v>
+        <v>3045</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0388</v>
+        <v>0.0072</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0194</v>
+        <v>0.0094</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
         <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0143</v>
+        <v>0.0015</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0007</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
-        <v>20</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.0171</v>
+        <v>0.0086</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
